--- a/biology/Médecine/Participation_forfaitaire/Participation_forfaitaire.xlsx
+++ b/biology/Médecine/Participation_forfaitaire/Participation_forfaitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La participation forfaitaire de un euro (1 €) a été instituée à compter du 1er janvier 2005 au sein de la branche maladie de la Sécurité sociale, en France.
 Elle reste à la charge des assurés sociaux (sauf exceptions) à chaque consultation et acte médical (médecin généraliste ou spécialiste) et à chaque examen de radiographie ou de biologie.
@@ -514,10 +526,12 @@
           <t>Déplafonnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis le 3 août 2007, le plafond de 1 € par jour a été porté à 4 € par jour, c'est-à-dire qu'au maximum 4 actes médicaux donneront lieu à l'application de la participation forfaitaire de 1 €.
-En matière d'examen de radiologie ou de biologie, c'est le nombre d'actes de recherche qui est pris en compte. À titre d'exemple un prélèvement sanguin prescrit par un médecin pour la recherche de transaminases et de plaquettes donne lieu à 2 actes de recherche[1], un pour les transaminases, l'autre pour les plaquettes. De ce fait, la participation forfaitaire dans cet exemple est de 2 €. Pour des examens sanguins courants, on atteint rapidement le plafond journalier de 4 €.
+En matière d'examen de radiologie ou de biologie, c'est le nombre d'actes de recherche qui est pris en compte. À titre d'exemple un prélèvement sanguin prescrit par un médecin pour la recherche de transaminases et de plaquettes donne lieu à 2 actes de recherche, un pour les transaminases, l'autre pour les plaquettes. De ce fait, la participation forfaitaire dans cet exemple est de 2 €. Pour des examens sanguins courants, on atteint rapidement le plafond journalier de 4 €.
 De même, si le médecin au cours de la consultation dans son cabinet pratique un acte médical (comme enlever une verrue au laser par exemple), il y aura 2 actes (la consultation et l'intervention de chirurgie), et la participation forfaitaire sera de 2 €.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Exceptions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ne sont pas concernés par la participation forfaitaire :
 les moins de 18 ans,
